--- a/배열(참조 타입).xlsx
+++ b/배열(참조 타입).xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="11595" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="C02_Array2" sheetId="1" r:id="rId1"/>
+    <sheet name="C03_2D_Array" sheetId="2" r:id="rId2"/>
+    <sheet name="C04_ReferenceType" sheetId="3" r:id="rId3"/>
+    <sheet name="C05_ArrayCopy" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="128">
   <si>
     <t>타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +133,392 @@
   </si>
   <si>
     <t>[names.length-1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numbers1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numbers2</t>
+  </si>
+  <si>
+    <t>numbers3</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr1[0][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr1[0][?]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr1[0][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr1[0][2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr1[0][3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr1[0][4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr1[1][?]</t>
+  </si>
+  <si>
+    <t>arr1[2][?]</t>
+  </si>
+  <si>
+    <t>arr1[1][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr1[1][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr1[1][2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr1[1][3]</t>
+  </si>
+  <si>
+    <t>arr1[1][4]</t>
+  </si>
+  <si>
+    <t>arr1[2][0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr1[2][1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr1[2][2]</t>
+  </si>
+  <si>
+    <t>arr1[2][3]</t>
+  </si>
+  <si>
+    <t>arr1[2][4]</t>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brr[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[0] == brr[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr ≠ brr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조타입 변수명은 0번 배열의 주소를 저장한다. 
+arr과 brr의 값인 G4, G7은 각각 배열의 주소이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[ ]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refCopy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valCopy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얕은 복사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깊은 복사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +526,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,16 +551,46 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -194,13 +613,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,6 +722,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -639,10 +1222,10 @@
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -663,10 +1246,10 @@
       <c r="F8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -677,4 +1260,836 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="10">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F4" s="11"/>
+      <c r="G4" s="10">
+        <v>10</v>
+      </c>
+      <c r="H4" s="10">
+        <v>20</v>
+      </c>
+      <c r="I4" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="10">
+        <f>G4</f>
+        <v>10</v>
+      </c>
+      <c r="D6" s="10">
+        <f>H4</f>
+        <v>20</v>
+      </c>
+      <c r="E6" s="10">
+        <f>I4</f>
+        <v>30</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="10">
+        <f>G7</f>
+        <v>10</v>
+      </c>
+      <c r="D7" s="10">
+        <f>H7</f>
+        <v>20</v>
+      </c>
+      <c r="E7" s="10">
+        <f>I7</f>
+        <v>30</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10">
+        <v>10</v>
+      </c>
+      <c r="H7" s="10">
+        <v>20</v>
+      </c>
+      <c r="I7" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="10">
+        <v>10</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="10">
+        <v>10</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" s="12" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" s="12" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="A15:E16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34">
+        <v>10</v>
+      </c>
+      <c r="I5" s="34">
+        <v>20</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="30">
+        <f>H5</f>
+        <v>10</v>
+      </c>
+      <c r="E6" s="30">
+        <f>I5</f>
+        <v>20</v>
+      </c>
+      <c r="F6" s="30" t="str">
+        <f>J5</f>
+        <v>30</v>
+      </c>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="35"/>
+      <c r="B9" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="30">
+        <f>H5</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="30">
+        <f>I5</f>
+        <v>20</v>
+      </c>
+      <c r="F9" s="30" t="str">
+        <f>J5</f>
+        <v>30</v>
+      </c>
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G10" s="32"/>
+      <c r="H10" s="34">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="34">
+        <v>20</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="32"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="30">
+        <f>H10</f>
+        <v>-1</v>
+      </c>
+      <c r="E12" s="30">
+        <f>I10</f>
+        <v>20</v>
+      </c>
+      <c r="F12" s="30" t="str">
+        <f>J10</f>
+        <v>30</v>
+      </c>
+      <c r="G12" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/배열(참조 타입).xlsx
+++ b/배열(참조 타입).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="157">
   <si>
     <t>타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,6 +519,120 @@
   </si>
   <si>
     <t>깊은 복사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리에서 실제 배열(객체) 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택 메모리 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힙 메모리 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[2]</t>
+  </si>
+  <si>
+    <t>refCopy[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refCopy[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refCopy[2]</t>
+  </si>
+  <si>
+    <t>참조타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refCopy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valCopy[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valCopy[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valCopy[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>깊은 복사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참조타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +640,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,8 +689,34 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,8 +729,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -693,13 +839,309 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -748,6 +1190,120 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -784,28 +1340,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1222,10 +1814,10 @@
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1246,10 +1838,10 @@
       <c r="F8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1836,41 +2428,41 @@
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:9" s="12" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="19"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:9" s="12" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
       <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
       <c r="F16" s="11"/>
     </row>
   </sheetData>
@@ -1886,207 +2478,533 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="31"/>
+    <col min="1" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="16" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="18" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="32"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="28" t="s">
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="34">
+      <c r="G5" s="21"/>
+      <c r="H5" s="22">
         <v>10</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="22">
         <v>20</v>
       </c>
-      <c r="J5" s="34" t="s">
+      <c r="J5" s="22" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="18">
         <f>H5</f>
         <v>10</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="18">
         <f>I5</f>
         <v>20</v>
       </c>
-      <c r="F6" s="30" t="str">
+      <c r="F6" s="18" t="str">
         <f>J5</f>
         <v>30</v>
       </c>
-      <c r="G6" s="32"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G7" s="32"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="72"/>
+      <c r="B9" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="18">
         <f>H5</f>
         <v>10</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="18">
         <f>I5</f>
         <v>20</v>
       </c>
-      <c r="F9" s="30" t="str">
+      <c r="F9" s="18" t="str">
         <f>J5</f>
         <v>30</v>
       </c>
-      <c r="G9" s="32"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G10" s="32"/>
-      <c r="H10" s="34">
+      <c r="G10" s="20"/>
+      <c r="H10" s="22">
         <v>-1</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="22">
         <v>20</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="22" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="30" t="s">
+      <c r="A12" s="72"/>
+      <c r="B12" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="18">
         <f>H10</f>
         <v>-1</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="18">
         <f>I10</f>
         <v>20</v>
       </c>
-      <c r="F12" s="30" t="str">
+      <c r="F12" s="18" t="str">
         <f>J10</f>
         <v>30</v>
       </c>
-      <c r="G12" s="32"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+    </row>
+    <row r="19" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="82"/>
+    </row>
+    <row r="21" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="77"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="85"/>
+    </row>
+    <row r="22" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="28"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="29"/>
+      <c r="B23" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="30">
+        <v>15</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="34"/>
+      <c r="B25" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="34"/>
+      <c r="B26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="30" t="str">
+        <f>I27</f>
+        <v>I26</v>
+      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="43">
+        <v>10</v>
+      </c>
+      <c r="J26" s="10">
+        <v>20</v>
+      </c>
+      <c r="K26" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
+    </row>
+    <row r="28" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="70"/>
+      <c r="B29" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="30" t="str">
+        <f>I27</f>
+        <v>I26</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="K29" s="51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" s="53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="43">
+        <v>10</v>
+      </c>
+      <c r="J31" s="10">
+        <v>20</v>
+      </c>
+      <c r="K31" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="71"/>
+      <c r="B32" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="47" t="str">
+        <f>I32</f>
+        <v>I31</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="J32" s="46"/>
+      <c r="K32" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="9">
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A17:K19"/>
+    <mergeCell ref="A20:D21"/>
+    <mergeCell ref="H20:K21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
